--- a/04_regression/03_output/plot_data_reg_wage_age.xlsx
+++ b/04_regression/03_output/plot_data_reg_wage_age.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,858 +371,618 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>1755.981419053732</v>
+        <v>4285.296123845261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>1863.995811712246</v>
+        <v>4420.622098977616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>1975.84087237745</v>
+        <v>4554.216272793019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>2091.418833816763</v>
+        <v>4685.669136562688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>2210.609749247503</v>
+        <v>4814.567670782888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>2333.270897301677</v>
+        <v>4940.497449987972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>2459.236319103704</v>
+        <v>5063.044816239377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>2588.316499042357</v>
+        <v>5181.799105783512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>2720.298200000323</v>
+        <v>5296.354912459646</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>2854.944462816143</v>
+        <v>5406.314370677959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>2991.994778597159</v>
+        <v>5511.289440191531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>3131.1654411849</v>
+        <v>5610.90417446432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>3272.150085605099</v>
+        <v>5704.796954200629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>3414.620416724607</v>
+        <v>5792.622667555036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>3558.227130601369</v>
+        <v>5874.054818691604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>3702.601029167798</v>
+        <v>5948.7875467077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>3847.354326951819</v>
+        <v>6016.537537481215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>3992.082146534328</v>
+        <v>6077.045811736682</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>4136.3641973905</v>
+        <v>6130.079373549856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>4279.76663068999</v>
+        <v>6175.432704612892</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>4421.844060563465</v>
+        <v>6212.929090853403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>4562.14174030787</v>
+        <v>6242.421769425787</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>4700.19788002707</v>
+        <v>6263.794885657242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>4835.546090317065</v>
+        <v>6276.964251217566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B26">
-        <v>4967.717934831928</v>
+        <v>6281.87789656911</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>5096.245572936102</v>
+        <v>6278.516412624378</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>5220.664472185081</v>
+        <v>6266.893078467595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B29">
-        <v>5340.516169104546</v>
+        <v>6247.053773964395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B30">
-        <v>5455.351055679241</v>
+        <v>6219.076678064416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B31">
-        <v>5564.731168136415</v>
+        <v>6183.071755572919</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>5668.232954031573</v>
+        <v>6139.180037106337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B33">
-        <v>5765.449993329412</v>
+        <v>6087.572698829633</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>5855.995649130562</v>
+        <v>6028.449950378522</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B35">
-        <v>5939.505623930605</v>
+        <v>5962.039741075922</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B36">
-        <v>6015.640397815137</v>
+        <v>5888.596296141302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>6084.087525790574</v>
+        <v>5808.398496043428</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B38">
-        <v>6144.56377252036</v>
+        <v>5721.74811344825</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>6196.817064069691</v>
+        <v>5628.967923348846</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B40">
-        <v>6240.628237845994</v>
+        <v>5530.399702922781</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>6275.81257373901</v>
+        <v>5426.402138434023</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>6302.221091493392</v>
+        <v>5317.348657077581</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>6319.741601563765</v>
+        <v>5203.625202047653</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B44">
-        <v>6328.299499079923</v>
+        <v>5085.627969297323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B45">
-        <v>6327.858293059525</v>
+        <v>4963.761124447922</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B46">
-        <v>6318.419865615241</v>
+        <v>4838.434518104413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>6300.024458579785</v>
+        <v>4710.061417445911</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B48">
-        <v>6272.75038768187</v>
+        <v>4579.056271396023</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B49">
-        <v>6236.713487113838</v>
+        <v>4445.832525946524</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B50">
-        <v>6192.066290003427</v>
+        <v>4310.80050532341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>6138.996952903046</v>
+        <v>4174.365373660451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>6077.727934908256</v>
+        <v>4036.925190697135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B53">
-        <v>6008.514444380342</v>
+        <v>3898.869073763969</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B54">
-        <v>5931.642668447659</v>
+        <v>3760.575476973854</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>5847.42780246953</v>
+        <v>3622.41059712475</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B56">
-        <v>5756.211898441494</v>
+        <v>3484.726914352427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B57">
-        <v>5658.361552880618</v>
+        <v>3347.861874073222</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B58">
-        <v>5554.265456037979</v>
+        <v>3212.136715243315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B59">
-        <v>5444.331825328821</v>
+        <v>3077.85544845112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B60">
-        <v>5328.985746639688</v>
+        <v>2945.303985870515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B61">
-        <v>5208.666447661655</v>
+        <v>2814.749423651536</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B62">
-        <v>5083.824527606988</v>
+        <v>2686.4394759265</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B63">
-        <v>4954.91916759754</v>
+        <v>2560.602058278114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B64">
-        <v>4822.415345672033</v>
+        <v>2437.445017263942</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B65">
-        <v>4686.781079756941</v>
+        <v>2317.15600142998</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B66">
-        <v>4548.484721096189</v>
+        <v>2199.902468184397</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B67">
-        <v>4407.992319553879</v>
+        <v>2085.831819948229</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B68">
-        <v>4265.765080912721</v>
+        <v>1975.071662159003</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B69">
-        <v>4122.256934809766</v>
+        <v>1867.730174980175</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B70">
-        <v>3977.912230305305</v>
+        <v>1763.896589966212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B71">
-        <v>3833.163574295532</v>
+        <v>1663.64176245101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B72">
-        <v>3688.429826082106</v>
+        <v>1567.018830065268</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B73">
-        <v>3544.114259428842</v>
+        <v>1474.063947544369</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B74">
-        <v>3400.602901396751</v>
+        <v>1384.797087858344</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B75">
-        <v>3258.263055178701</v>
+        <v>1299.222899674621</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B76">
-        <v>3117.442012084335</v>
+        <v>1217.331611246997</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B77">
-        <v>2978.465955777067</v>
+        <v>1139.099971002855</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B78">
-        <v>2841.639059866243</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>2707.242778028452</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>2575.535323996976</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>2446.751337033132</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>2321.101726897272</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>2198.77369088173</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>2079.930894166795</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1964.713803620408</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1853.240164190601</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>1745.605606238345</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>1641.88437153002</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>1542.130145149816</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>1446.376980300883</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1354.640302832406</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1266.917982351795</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>1183.191456945753</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1103.426898831947</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1027.576408680781</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>955.5792268728842</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>887.3629505776147</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>822.8447462382794</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>761.9325478158373</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>704.5262319614376</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>650.5187621446152</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>599.7972946459081</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>552.2442402164867</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>507.7382761020483</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>466.1553040119413</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>427.3693504778504</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>391.2534068799027</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>357.6802072143236</v>
+        <v>1064.492215367919</v>
       </c>
     </row>
   </sheetData>

--- a/04_regression/03_output/plot_data_reg_wage_age.xlsx
+++ b/04_regression/03_output/plot_data_reg_wage_age.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,618 +371,610 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>4285.296123845261</v>
+        <v>4740.582554633078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>4420.622098977616</v>
+        <v>4860.25429175882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>4554.216272793019</v>
+        <v>4977.447166116676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>4685.669136562688</v>
+        <v>5091.839586717203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>4814.567670782888</v>
+        <v>5203.111772889624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>4940.497449987972</v>
+        <v>5310.947223449562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>5063.044816239377</v>
+        <v>5415.03420049433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>5181.799105783512</v>
+        <v>5515.067218218306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>5296.354912459646</v>
+        <v>5610.748526897786</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>5406.314370677959</v>
+        <v>5701.789582033169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>5511.289440191531</v>
+        <v>5787.912488562154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>5610.90417446432</v>
+        <v>5868.851410071082</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>5704.796954200629</v>
+        <v>5944.353933034749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>5792.622667555036</v>
+        <v>6014.182376309222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>5874.054818691604</v>
+        <v>6078.115036385573</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>5948.7875467077</v>
+        <v>6135.947359284442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>6016.537537481215</v>
+        <v>6187.493030428849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>6077.045811736682</v>
+        <v>6232.584974372676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
-        <v>6130.079373549856</v>
+        <v>6271.076256879731</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>6175.432704612892</v>
+        <v>6302.840882538548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>6212.929090853403</v>
+        <v>6327.774481853854</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>6242.421769425787</v>
+        <v>6345.794882571556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24">
-        <v>6263.794885657242</v>
+        <v>6356.842560860144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25">
-        <v>6276.964251217566</v>
+        <v>6360.880968881814</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>6281.87789656911</v>
+        <v>6357.89673623036</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27">
-        <v>6278.516412624378</v>
+        <v>6347.899743682322</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28">
-        <v>6266.893078467595</v>
+        <v>6330.923068691606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>6247.053773964395</v>
+        <v>6307.022803048764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>6219.076678064416</v>
+        <v>6276.277744111486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>6183.071755572919</v>
+        <v>6238.788961984935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32">
-        <v>6139.180037106337</v>
+        <v>6194.67924597918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33">
-        <v>6087.572698829633</v>
+        <v>6144.092434586227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <v>6028.449950378522</v>
+        <v>6087.192634093319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35">
-        <v>5962.039741075922</v>
+        <v>6024.163331772217</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>5888.596296141302</v>
+        <v>5955.206410350143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37">
-        <v>5808.398496043428</v>
+        <v>5880.541071168359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>5721.74811344825</v>
+        <v>5800.402674062861</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39">
-        <v>5628.967923348846</v>
+        <v>5715.041502553963</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>5530.399702922781</v>
+        <v>5624.721463401599</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <v>5426.402138434023</v>
+        <v>5529.718729967993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42">
-        <v>5317.348657077581</v>
+        <v>5430.32033912655</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43">
-        <v>5203.625202047653</v>
+        <v>5326.822751663119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44">
-        <v>5085.627969297323</v>
+        <v>5219.530386232591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>4963.761124447922</v>
+        <v>5108.754136961149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>4838.434518104413</v>
+        <v>4994.809884722841</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47">
-        <v>4710.061417445911</v>
+        <v>4878.017011970586</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48">
-        <v>4579.056271396023</v>
+        <v>4758.696930770997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>4445.832525946524</v>
+        <v>4637.171633381299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50">
-        <v>4310.80050532341</v>
+        <v>4513.762274321521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51">
-        <v>4174.365373660451</v>
+        <v>4388.787792440849</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52">
-        <v>4036.925190697135</v>
+        <v>4262.56358095994</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53">
-        <v>3898.869073763969</v>
+        <v>4135.400212897344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54">
-        <v>3760.575476973854</v>
+        <v>4007.602228665517</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55">
-        <v>3622.41059712475</v>
+        <v>3879.46699195734</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56">
-        <v>3484.726914352427</v>
+        <v>3751.28361934552</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>3347.861874073222</v>
+        <v>3623.331988292178</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58">
-        <v>3212.136715243315</v>
+        <v>3495.881827522673</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59">
-        <v>3077.85544845112</v>
+        <v>3369.191892963853</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60">
-        <v>2945.303985870515</v>
+        <v>3243.509231690026</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61">
-        <v>2814.749423651536</v>
+        <v>3119.068535567904</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62">
-        <v>2686.4394759265</v>
+        <v>2996.091585551384</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63">
-        <v>2560.602058278114</v>
+        <v>2874.786786855084</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64">
-        <v>2437.445017263942</v>
+        <v>2755.348794538934</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65">
-        <v>2317.15600142998</v>
+        <v>2637.958228369727</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66">
-        <v>2199.902468184397</v>
+        <v>2522.781475195773</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67">
-        <v>2085.831819948229</v>
+        <v>2409.970576481152</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68">
-        <v>1975.071662159003</v>
+        <v>2299.663198101779</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69">
-        <v>1867.730174980175</v>
+        <v>2191.982679009046</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70">
-        <v>1763.896589966212</v>
+        <v>2087.038154921419</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71">
-        <v>1663.64176245101</v>
+        <v>1984.924752811954</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72">
-        <v>1567.018830065268</v>
+        <v>1885.723851621767</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73">
-        <v>1474.063947544369</v>
+        <v>1789.5034043467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74">
-        <v>1384.797087858344</v>
+        <v>1696.318316416809</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75">
-        <v>1299.222899674621</v>
+        <v>1606.210875115848</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76">
-        <v>1217.331611246997</v>
+        <v>1519.21122466882</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77">
-        <v>1139.099971002855</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>94</v>
-      </c>
-      <c r="B78">
-        <v>1064.492215367919</v>
+        <v>1435.337881559208</v>
       </c>
     </row>
   </sheetData>

--- a/04_regression/03_output/plot_data_reg_wage_age.xlsx
+++ b/04_regression/03_output/plot_data_reg_wage_age.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,7 +374,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4740.582554633078</v>
+        <v>4504.627264712643</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>4860.25429175882</v>
+        <v>4633.33839461559</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>4977.447166116676</v>
+        <v>4759.722242835674</v>
       </c>
     </row>
     <row r="5">
@@ -398,7 +398,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>5091.839586717203</v>
+        <v>4883.392489427923</v>
       </c>
     </row>
     <row r="6">
@@ -406,7 +406,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>5203.111772889624</v>
+        <v>5003.962922665383</v>
       </c>
     </row>
     <row r="7">
@@ -414,7 +414,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>5310.947223449562</v>
+        <v>5121.049412950785</v>
       </c>
     </row>
     <row r="8">
@@ -422,7 +422,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>5415.03420049433</v>
+        <v>5234.271923436626</v>
       </c>
     </row>
     <row r="9">
@@ -430,7 +430,7 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>5515.067218218306</v>
+        <v>5343.256542883342</v>
       </c>
     </row>
     <row r="10">
@@ -438,7 +438,7 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>5610.748526897786</v>
+        <v>5447.637525739176</v>
       </c>
     </row>
     <row r="11">
@@ -446,7 +446,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>5701.789582033169</v>
+        <v>5547.059324019701</v>
       </c>
     </row>
     <row r="12">
@@ -454,7 +454,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>5787.912488562154</v>
+        <v>5641.178595307084</v>
       </c>
     </row>
     <row r="13">
@@ -462,7 +462,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>5868.851410071082</v>
+        <v>5729.666171085652</v>
       </c>
     </row>
     <row r="14">
@@ -470,7 +470,7 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>5944.353933034749</v>
+        <v>5812.208969685085</v>
       </c>
     </row>
     <row r="15">
@@ -478,7 +478,7 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>6014.182376309222</v>
+        <v>5888.511838318149</v>
       </c>
     </row>
     <row r="16">
@@ -486,7 +486,7 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>6078.115036385573</v>
+        <v>5958.299309076966</v>
       </c>
     </row>
     <row r="17">
@@ -494,7 +494,7 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>6135.947359284442</v>
+        <v>6021.317254287688</v>
       </c>
     </row>
     <row r="18">
@@ -502,7 +502,7 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>6187.493030428849</v>
+        <v>6077.334427315947</v>
       </c>
     </row>
     <row r="19">
@@ -510,7 +510,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>6232.584974372676</v>
+        <v>6126.143875757166</v>
       </c>
     </row>
     <row r="20">
@@ -518,7 +518,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>6271.076256879731</v>
+        <v>6167.564214930656</v>
       </c>
     </row>
     <row r="21">
@@ -526,7 +526,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>6302.840882538548</v>
+        <v>6201.440750713115</v>
       </c>
     </row>
     <row r="22">
@@ -534,7 +534,7 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>6327.774481853854</v>
+        <v>6227.64644198572</v>
       </c>
     </row>
     <row r="23">
@@ -542,7 +542,7 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>6345.794882571556</v>
+        <v>6246.082694315713</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>6356.842560860144</v>
+        <v>6256.679977933589</v>
       </c>
     </row>
     <row r="25">
@@ -558,7 +558,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>6360.880968881814</v>
+        <v>6259.39826458554</v>
       </c>
     </row>
     <row r="26">
@@ -566,7 +566,7 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>6357.89673623036</v>
+        <v>6254.227279420029</v>
       </c>
     </row>
     <row r="27">
@@ -574,7 +574,7 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>6347.899743682322</v>
+        <v>6241.186565690459</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <v>6330.923068691606</v>
+        <v>6220.325361703711</v>
       </c>
     </row>
     <row r="29">
@@ -590,7 +590,7 @@
         <v>46</v>
       </c>
       <c r="B29">
-        <v>6307.022803048764</v>
+        <v>6191.722291098811</v>
       </c>
     </row>
     <row r="30">
@@ -598,7 +598,7 @@
         <v>47</v>
       </c>
       <c r="B30">
-        <v>6276.277744111486</v>
+        <v>6155.484869182075</v>
       </c>
     </row>
     <row r="31">
@@ -606,7 +606,7 @@
         <v>48</v>
       </c>
       <c r="B31">
-        <v>6238.788961984935</v>
+        <v>6111.748829656309</v>
       </c>
     </row>
     <row r="32">
@@ -614,7 +614,7 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>6194.67924597918</v>
+        <v>6060.677277644281</v>
       </c>
     </row>
     <row r="33">
@@ -622,7 +622,7 @@
         <v>50</v>
       </c>
       <c r="B33">
-        <v>6144.092434586227</v>
+        <v>6002.459676402021</v>
       </c>
     </row>
     <row r="34">
@@ -630,7 +630,7 @@
         <v>51</v>
       </c>
       <c r="B34">
-        <v>6087.192634093319</v>
+        <v>5937.310676530894</v>
       </c>
     </row>
     <row r="35">
@@ -638,7 +638,7 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>6024.163331772217</v>
+        <v>5865.468797811419</v>
       </c>
     </row>
     <row r="36">
@@ -646,7 +646,7 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <v>5955.206410350143</v>
+        <v>5787.194974984221</v>
       </c>
     </row>
     <row r="37">
@@ -654,7 +654,7 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <v>5880.541071168359</v>
+        <v>5702.770979880082</v>
       </c>
     </row>
     <row r="38">
@@ -662,7 +662,7 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>5800.402674062861</v>
+        <v>5612.497733242381</v>
       </c>
     </row>
     <row r="39">
@@ -670,7 +670,7 @@
         <v>56</v>
       </c>
       <c r="B39">
-        <v>5715.041502553963</v>
+        <v>5516.693520381373</v>
       </c>
     </row>
     <row r="40">
@@ -678,7 +678,7 @@
         <v>57</v>
       </c>
       <c r="B40">
-        <v>5624.721463401599</v>
+        <v>5415.692125443871</v>
       </c>
     </row>
     <row r="41">
@@ -686,7 +686,7 @@
         <v>58</v>
       </c>
       <c r="B41">
-        <v>5529.718729967993</v>
+        <v>5309.840899568959</v>
       </c>
     </row>
     <row r="42">
@@ -694,7 +694,7 @@
         <v>59</v>
       </c>
       <c r="B42">
-        <v>5430.32033912655</v>
+        <v>5199.498778527</v>
       </c>
     </row>
     <row r="43">
@@ -702,7 +702,7 @@
         <v>60</v>
       </c>
       <c r="B43">
-        <v>5326.822751663119</v>
+        <v>5085.034265604899</v>
       </c>
     </row>
     <row r="44">
@@ -710,7 +710,7 @@
         <v>61</v>
       </c>
       <c r="B44">
-        <v>5219.530386232591</v>
+        <v>4966.823395505629</v>
       </c>
     </row>
     <row r="45">
@@ -718,7 +718,7 @@
         <v>62</v>
       </c>
       <c r="B45">
-        <v>5108.754136961149</v>
+        <v>4845.247694878099</v>
       </c>
     </row>
     <row r="46">
@@ -726,7 +726,7 @@
         <v>63</v>
       </c>
       <c r="B46">
-        <v>4994.809884722841</v>
+        <v>4720.692154788529</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>64</v>
       </c>
       <c r="B47">
-        <v>4878.017011970586</v>
+        <v>4593.543229994942</v>
       </c>
     </row>
     <row r="48">
@@ -742,7 +742,7 @@
         <v>65</v>
       </c>
       <c r="B48">
-        <v>4758.696930770997</v>
+        <v>4464.186879297748</v>
       </c>
     </row>
     <row r="49">
@@ -750,7 +750,7 @@
         <v>66</v>
       </c>
       <c r="B49">
-        <v>4637.171633381299</v>
+        <v>4333.006660524843</v>
       </c>
     </row>
     <row r="50">
@@ -758,7 +758,7 @@
         <v>67</v>
       </c>
       <c r="B50">
-        <v>4513.762274321521</v>
+        <v>4200.381892877557</v>
       </c>
     </row>
     <row r="51">
@@ -766,7 +766,7 @@
         <v>68</v>
       </c>
       <c r="B51">
-        <v>4388.787792440849</v>
+        <v>4066.685898428344</v>
       </c>
     </row>
     <row r="52">
@@ -774,7 +774,7 @@
         <v>69</v>
       </c>
       <c r="B52">
-        <v>4262.56358095994</v>
+        <v>3932.284333534301</v>
       </c>
     </row>
     <row r="53">
@@ -782,7 +782,7 @@
         <v>70</v>
       </c>
       <c r="B53">
-        <v>4135.400212897344</v>
+        <v>3797.533619828217</v>
       </c>
     </row>
     <row r="54">
@@ -790,7 +790,7 @@
         <v>71</v>
       </c>
       <c r="B54">
-        <v>4007.602228665517</v>
+        <v>3662.77948328296</v>
       </c>
     </row>
     <row r="55">
@@ -798,7 +798,7 @@
         <v>72</v>
       </c>
       <c r="B55">
-        <v>3879.46699195734</v>
+        <v>3528.355608633436</v>
       </c>
     </row>
     <row r="56">
@@ -806,7 +806,7 @@
         <v>73</v>
       </c>
       <c r="B56">
-        <v>3751.28361934552</v>
+        <v>3394.582415195665</v>
       </c>
     </row>
     <row r="57">
@@ -814,7 +814,7 @@
         <v>74</v>
       </c>
       <c r="B57">
-        <v>3623.331988292178</v>
+        <v>3261.765958861217</v>
       </c>
     </row>
     <row r="58">
@@ -822,7 +822,7 @@
         <v>75</v>
       </c>
       <c r="B58">
-        <v>3495.881827522673</v>
+        <v>3130.196963781129</v>
       </c>
     </row>
     <row r="59">
@@ -830,7 +830,7 @@
         <v>76</v>
       </c>
       <c r="B59">
-        <v>3369.191892963853</v>
+        <v>3000.149986001161</v>
       </c>
     </row>
     <row r="60">
@@ -838,7 +838,7 @@
         <v>77</v>
       </c>
       <c r="B60">
-        <v>3243.509231690026</v>
+        <v>2871.882710082897</v>
       </c>
     </row>
     <row r="61">
@@ -846,7 +846,7 @@
         <v>78</v>
       </c>
       <c r="B61">
-        <v>3119.068535567904</v>
+        <v>2745.635378555737</v>
       </c>
     </row>
     <row r="62">
@@ -854,7 +854,7 @@
         <v>79</v>
       </c>
       <c r="B62">
-        <v>2996.091585551384</v>
+        <v>2621.630352904689</v>
       </c>
     </row>
     <row r="63">
@@ -862,7 +862,7 @@
         <v>80</v>
       </c>
       <c r="B63">
-        <v>2874.786786855084</v>
+        <v>2500.071803719092</v>
       </c>
     </row>
     <row r="64">
@@ -870,7 +870,7 @@
         <v>81</v>
       </c>
       <c r="B64">
-        <v>2755.348794538934</v>
+        <v>2381.14552661683</v>
       </c>
     </row>
     <row r="65">
@@ -878,7 +878,7 @@
         <v>82</v>
       </c>
       <c r="B65">
-        <v>2637.958228369727</v>
+        <v>2265.018879625954</v>
       </c>
     </row>
     <row r="66">
@@ -886,7 +886,7 @@
         <v>83</v>
       </c>
       <c r="B66">
-        <v>2522.781475195773</v>
+        <v>2151.840836857543</v>
       </c>
     </row>
     <row r="67">
@@ -894,7 +894,7 @@
         <v>84</v>
       </c>
       <c r="B67">
-        <v>2409.970576481152</v>
+        <v>2041.742152545537</v>
       </c>
     </row>
     <row r="68">
@@ -902,7 +902,7 @@
         <v>85</v>
       </c>
       <c r="B68">
-        <v>2299.663198101779</v>
+        <v>1934.835628865538</v>
       </c>
     </row>
     <row r="69">
@@ -910,7 +910,7 @@
         <v>86</v>
       </c>
       <c r="B69">
-        <v>2191.982679009046</v>
+        <v>1831.216480377853</v>
       </c>
     </row>
     <row r="70">
@@ -918,7 +918,7 @@
         <v>87</v>
       </c>
       <c r="B70">
-        <v>2087.038154921419</v>
+        <v>1730.962787471794</v>
       </c>
     </row>
     <row r="71">
@@ -926,7 +926,7 @@
         <v>88</v>
       </c>
       <c r="B71">
-        <v>1984.924752811954</v>
+        <v>1634.136030818801</v>
       </c>
     </row>
     <row r="72">
@@ -934,7 +934,7 @@
         <v>89</v>
       </c>
       <c r="B72">
-        <v>1885.723851621767</v>
+        <v>1540.781698570106</v>
       </c>
     </row>
     <row r="73">
@@ -942,7 +942,7 @@
         <v>90</v>
       </c>
       <c r="B73">
-        <v>1789.5034043467</v>
+        <v>1450.929957858329</v>
       </c>
     </row>
     <row r="74">
@@ -950,31 +950,7 @@
         <v>91</v>
       </c>
       <c r="B74">
-        <v>1696.318316416809</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>92</v>
-      </c>
-      <c r="B75">
-        <v>1606.210875115848</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>93</v>
-      </c>
-      <c r="B76">
-        <v>1519.21122466882</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>94</v>
-      </c>
-      <c r="B77">
-        <v>1435.337881559208</v>
+        <v>1364.596382078415</v>
       </c>
     </row>
   </sheetData>

--- a/04_regression/03_output/plot_data_reg_wage_age.xlsx
+++ b/04_regression/03_output/plot_data_reg_wage_age.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,16 @@
           <t>wage</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ci_upper</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -376,6 +386,12 @@
       <c r="B2">
         <v>4504.627264712643</v>
       </c>
+      <c r="C2">
+        <v>4366.965832188154</v>
+      </c>
+      <c r="D2">
+        <v>4646.843522565296</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -384,6 +400,12 @@
       <c r="B3">
         <v>4633.33839461559</v>
       </c>
+      <c r="C3">
+        <v>4508.126607641642</v>
+      </c>
+      <c r="D3">
+        <v>4767.578463546169</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -392,6 +414,12 @@
       <c r="B4">
         <v>4759.722242835674</v>
       </c>
+      <c r="C4">
+        <v>4645.433736053693</v>
+      </c>
+      <c r="D4">
+        <v>4884.180434324798</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -400,6 +428,12 @@
       <c r="B5">
         <v>4883.392489427923</v>
       </c>
+      <c r="C5">
+        <v>4777.720911464151</v>
+      </c>
+      <c r="D5">
+        <v>4997.992756061139</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -408,6 +442,12 @@
       <c r="B6">
         <v>5003.962922665383</v>
       </c>
+      <c r="C6">
+        <v>4906.53770436577</v>
+      </c>
+      <c r="D6">
+        <v>5107.296298882908</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -416,6 +456,12 @@
       <c r="B7">
         <v>5121.049412950785</v>
       </c>
+      <c r="C7">
+        <v>5032.159999355847</v>
+      </c>
+      <c r="D7">
+        <v>5219.137573467197</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -424,6 +470,12 @@
       <c r="B8">
         <v>5234.271923436626</v>
       </c>
+      <c r="C8">
+        <v>5154.049344640302</v>
+      </c>
+      <c r="D8">
+        <v>5326.296545645789</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -432,6 +484,12 @@
       <c r="B9">
         <v>5343.256542883342</v>
       </c>
+      <c r="C9">
+        <v>5265.567592250796</v>
+      </c>
+      <c r="D9">
+        <v>5428.373404314416</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -440,6 +498,12 @@
       <c r="B10">
         <v>5447.637525739176</v>
       </c>
+      <c r="C10">
+        <v>5368.425421184447</v>
+      </c>
+      <c r="D10">
+        <v>5530.321634467779</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -448,6 +512,12 @@
       <c r="B11">
         <v>5547.059324019701</v>
       </c>
+      <c r="C11">
+        <v>5467.176787954823</v>
+      </c>
+      <c r="D11">
+        <v>5629.797155178417</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -456,6 +526,12 @@
       <c r="B12">
         <v>5641.178595307084</v>
       </c>
+      <c r="C12">
+        <v>5558.629717911714</v>
+      </c>
+      <c r="D12">
+        <v>5727.437722801433</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -464,6 +540,12 @@
       <c r="B13">
         <v>5729.666171085652</v>
       </c>
+      <c r="C13">
+        <v>5645.276323311718</v>
+      </c>
+      <c r="D13">
+        <v>5821.232617327908</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -472,6 +554,12 @@
       <c r="B14">
         <v>5812.208969685085</v>
       </c>
+      <c r="C14">
+        <v>5723.906436550624</v>
+      </c>
+      <c r="D14">
+        <v>5905.392248315897</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -480,6 +568,12 @@
       <c r="B15">
         <v>5888.511838318149</v>
       </c>
+      <c r="C15">
+        <v>5795.065431066633</v>
+      </c>
+      <c r="D15">
+        <v>5986.599023749786</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -488,6 +582,12 @@
       <c r="B16">
         <v>5958.299309076966</v>
       </c>
+      <c r="C16">
+        <v>5858.602183710405</v>
+      </c>
+      <c r="D16">
+        <v>6060.060538332566</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -496,6 +596,12 @@
       <c r="B17">
         <v>6021.317254287688</v>
       </c>
+      <c r="C17">
+        <v>5917.240606866138</v>
+      </c>
+      <c r="D17">
+        <v>6128.972766850394</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -504,6 +610,12 @@
       <c r="B18">
         <v>6077.334427315947</v>
       </c>
+      <c r="C18">
+        <v>5969.307698691387</v>
+      </c>
+      <c r="D18">
+        <v>6190.064305820034</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -512,6 +624,12 @@
       <c r="B19">
         <v>6126.143875757166</v>
       </c>
+      <c r="C19">
+        <v>6014.52576631375</v>
+      </c>
+      <c r="D19">
+        <v>6240.578959322797</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -520,6 +638,12 @@
       <c r="B20">
         <v>6167.564214930656</v>
       </c>
+      <c r="C20">
+        <v>6052.516590140955</v>
+      </c>
+      <c r="D20">
+        <v>6285.645686796362</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -528,6 +652,12 @@
       <c r="B21">
         <v>6201.440750713115</v>
       </c>
+      <c r="C21">
+        <v>6083.288829081212</v>
+      </c>
+      <c r="D21">
+        <v>6323.561494373513</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -536,6 +666,12 @@
       <c r="B22">
         <v>6227.64644198572</v>
       </c>
+      <c r="C22">
+        <v>6107.813662424499</v>
+      </c>
+      <c r="D22">
+        <v>6355.184824767187</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -544,6 +680,12 @@
       <c r="B23">
         <v>6246.082694315713</v>
       </c>
+      <c r="C23">
+        <v>6123.600775073039</v>
+      </c>
+      <c r="D23">
+        <v>6376.143366005647</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -552,6 +694,12 @@
       <c r="B24">
         <v>6256.679977933589</v>
       </c>
+      <c r="C24">
+        <v>6129.775413652443</v>
+      </c>
+      <c r="D24">
+        <v>6386.949078062442</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -560,6 +708,12 @@
       <c r="B25">
         <v>6259.39826458554</v>
       </c>
+      <c r="C25">
+        <v>6132.825830920911</v>
+      </c>
+      <c r="D25">
+        <v>6388.75950856598</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -568,6 +722,12 @@
       <c r="B26">
         <v>6254.227279420029</v>
       </c>
+      <c r="C26">
+        <v>6127.515532219901</v>
+      </c>
+      <c r="D26">
+        <v>6384.336904020161</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -576,6 +736,12 @@
       <c r="B27">
         <v>6241.186565690459</v>
       </c>
+      <c r="C27">
+        <v>6113.162105155106</v>
+      </c>
+      <c r="D27">
+        <v>6370.956918434043</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -584,6 +750,12 @@
       <c r="B28">
         <v>6220.325361703711</v>
       </c>
+      <c r="C28">
+        <v>6094.781858845976</v>
+      </c>
+      <c r="D28">
+        <v>6350.48151974775</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -592,6 +764,12 @@
       <c r="B29">
         <v>6191.722291098811</v>
       </c>
+      <c r="C29">
+        <v>6065.834615139046</v>
+      </c>
+      <c r="D29">
+        <v>6318.325846979027</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -600,6 +778,12 @@
       <c r="B30">
         <v>6155.484869182075</v>
       </c>
+      <c r="C30">
+        <v>6033.026694646488</v>
+      </c>
+      <c r="D30">
+        <v>6280.597711659953</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -608,6 +792,12 @@
       <c r="B31">
         <v>6111.748829656309</v>
       </c>
+      <c r="C31">
+        <v>5990.435382203454</v>
+      </c>
+      <c r="D31">
+        <v>6236.781855929858</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -616,6 +806,12 @@
       <c r="B32">
         <v>6060.677277644281</v>
       </c>
+      <c r="C32">
+        <v>5940.202696437649</v>
+      </c>
+      <c r="D32">
+        <v>6186.44482446449</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -624,6 +820,12 @@
       <c r="B33">
         <v>6002.459676402021</v>
       </c>
+      <c r="C33">
+        <v>5880.980029535578</v>
+      </c>
+      <c r="D33">
+        <v>6129.952474861789</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -632,6 +834,12 @@
       <c r="B34">
         <v>5937.310676530894</v>
       </c>
+      <c r="C34">
+        <v>5817.508370612177</v>
+      </c>
+      <c r="D34">
+        <v>6067.176661554247</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -640,6 +848,12 @@
       <c r="B35">
         <v>5865.468797811419</v>
       </c>
+      <c r="C35">
+        <v>5740.570670306622</v>
+      </c>
+      <c r="D35">
+        <v>6001.47661580976</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -648,6 +862,12 @@
       <c r="B36">
         <v>5787.194974984221</v>
       </c>
+      <c r="C36">
+        <v>5659.418728124768</v>
+      </c>
+      <c r="D36">
+        <v>5928.244190229791</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -656,6 +876,12 @@
       <c r="B37">
         <v>5702.770979880082</v>
       </c>
+      <c r="C37">
+        <v>5572.437573548558</v>
+      </c>
+      <c r="D37">
+        <v>5841.340037095031</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -664,6 +890,12 @@
       <c r="B38">
         <v>5612.497733242381</v>
       </c>
+      <c r="C38">
+        <v>5477.311239722902</v>
+      </c>
+      <c r="D38">
+        <v>5757.277105187518</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -672,6 +904,12 @@
       <c r="B39">
         <v>5516.693520381373</v>
       </c>
+      <c r="C39">
+        <v>5376.855004098755</v>
+      </c>
+      <c r="D39">
+        <v>5671.156893245293</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -680,6 +918,12 @@
       <c r="B40">
         <v>5415.692125443871</v>
       </c>
+      <c r="C40">
+        <v>5268.507859760133</v>
+      </c>
+      <c r="D40">
+        <v>5578.489959259067</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -688,6 +932,12 @@
       <c r="B41">
         <v>5309.840899568959</v>
       </c>
+      <c r="C41">
+        <v>5155.477457837166</v>
+      </c>
+      <c r="D41">
+        <v>5474.246886289774</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -696,6 +946,12 @@
       <c r="B42">
         <v>5199.498778527</v>
       </c>
+      <c r="C42">
+        <v>5035.753459447461</v>
+      </c>
+      <c r="D42">
+        <v>5372.138126142343</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -704,6 +960,12 @@
       <c r="B43">
         <v>5085.034265604899</v>
       </c>
+      <c r="C43">
+        <v>4911.231281397589</v>
+      </c>
+      <c r="D43">
+        <v>5266.354811254862</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -712,6 +974,12 @@
       <c r="B44">
         <v>4966.823395505629</v>
       </c>
+      <c r="C44">
+        <v>4783.879106697284</v>
+      </c>
+      <c r="D44">
+        <v>5161.117767222458</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -720,6 +988,12 @@
       <c r="B45">
         <v>4845.247694878099</v>
       </c>
+      <c r="C45">
+        <v>4653.978962883332</v>
+      </c>
+      <c r="D45">
+        <v>5055.556910613967</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -728,6 +1002,12 @@
       <c r="B46">
         <v>4720.692154788529</v>
       </c>
+      <c r="C46">
+        <v>4517.398705864073</v>
+      </c>
+      <c r="D46">
+        <v>4940.395465425464</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -736,6 +1016,12 @@
       <c r="B47">
         <v>4593.543229994942</v>
       </c>
+      <c r="C47">
+        <v>4379.821443723634</v>
+      </c>
+      <c r="D47">
+        <v>4823.855237864888</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -744,6 +1030,12 @@
       <c r="B48">
         <v>4464.186879297748</v>
       </c>
+      <c r="C48">
+        <v>4237.529370973304</v>
+      </c>
+      <c r="D48">
+        <v>4704.981906161242</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -752,6 +1044,12 @@
       <c r="B49">
         <v>4333.006660524843</v>
       </c>
+      <c r="C49">
+        <v>4095.121500884416</v>
+      </c>
+      <c r="D49">
+        <v>4587.149893900279</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -760,6 +1058,12 @@
       <c r="B50">
         <v>4200.381892877557</v>
       </c>
+      <c r="C50">
+        <v>3951.927881194395</v>
+      </c>
+      <c r="D50">
+        <v>4468.599779314331</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -768,6 +1072,12 @@
       <c r="B51">
         <v>4066.685898428344</v>
       </c>
+      <c r="C51">
+        <v>3807.695287209804</v>
+      </c>
+      <c r="D51">
+        <v>4348.455774514429</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -776,6 +1086,12 @@
       <c r="B52">
         <v>3932.284333534301</v>
       </c>
+      <c r="C52">
+        <v>3660.262121882606</v>
+      </c>
+      <c r="D52">
+        <v>4228.66856901791</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -784,6 +1100,12 @@
       <c r="B53">
         <v>3797.533619828217</v>
       </c>
+      <c r="C53">
+        <v>3518.40935375347</v>
+      </c>
+      <c r="D53">
+        <v>4107.533888167538</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -792,6 +1114,12 @@
       <c r="B54">
         <v>3662.77948328296</v>
       </c>
+      <c r="C54">
+        <v>3377.783866406036</v>
+      </c>
+      <c r="D54">
+        <v>3985.21101142678</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -800,6 +1128,12 @@
       <c r="B55">
         <v>3528.355608633436</v>
       </c>
+      <c r="C55">
+        <v>3235.873570247929</v>
+      </c>
+      <c r="D55">
+        <v>3860.176063486586</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -808,6 +1142,12 @@
       <c r="B56">
         <v>3394.582415195665</v>
       </c>
+      <c r="C56">
+        <v>3091.673001976354</v>
+      </c>
+      <c r="D56">
+        <v>3734.889724627717</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -816,6 +1156,12 @@
       <c r="B57">
         <v>3261.765958861217</v>
       </c>
+      <c r="C57">
+        <v>2953.387245452378</v>
+      </c>
+      <c r="D57">
+        <v>3609.717122585584</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -824,6 +1170,12 @@
       <c r="B58">
         <v>3130.196963781129</v>
       </c>
+      <c r="C58">
+        <v>2820.758149111723</v>
+      </c>
+      <c r="D58">
+        <v>3485.00739732452</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -832,6 +1184,12 @@
       <c r="B59">
         <v>3000.149986001161</v>
       </c>
+      <c r="C59">
+        <v>2688.560932784423</v>
+      </c>
+      <c r="D59">
+        <v>3362.738226865609</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -840,6 +1198,12 @@
       <c r="B60">
         <v>2871.882710082897</v>
       </c>
+      <c r="C60">
+        <v>2557.283494466538</v>
+      </c>
+      <c r="D60">
+        <v>3242.18005579247</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -848,6 +1212,12 @@
       <c r="B61">
         <v>2745.635378555737</v>
       </c>
+      <c r="C61">
+        <v>2428.082791700785</v>
+      </c>
+      <c r="D61">
+        <v>3122.615396834072</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -856,6 +1226,12 @@
       <c r="B62">
         <v>2621.630352904689</v>
       </c>
+      <c r="C62">
+        <v>2303.207102730948</v>
+      </c>
+      <c r="D62">
+        <v>3004.257552166029</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -864,6 +1240,12 @@
       <c r="B63">
         <v>2500.071803719092</v>
       </c>
+      <c r="C63">
+        <v>2181.621909116167</v>
+      </c>
+      <c r="D63">
+        <v>2885.843424173981</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -872,6 +1254,12 @@
       <c r="B64">
         <v>2381.14552661683</v>
       </c>
+      <c r="C64">
+        <v>2063.483324109895</v>
+      </c>
+      <c r="D64">
+        <v>2767.261314391807</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -880,6 +1268,12 @@
       <c r="B65">
         <v>2265.018879625954</v>
       </c>
+      <c r="C65">
+        <v>1949.034654529953</v>
+      </c>
+      <c r="D65">
+        <v>2651.576947966274</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -888,6 +1282,12 @@
       <c r="B66">
         <v>2151.840836857543</v>
       </c>
+      <c r="C66">
+        <v>1838.370744479844</v>
+      </c>
+      <c r="D66">
+        <v>2540.891705808763</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -896,6 +1296,12 @@
       <c r="B67">
         <v>2041.742152545537</v>
       </c>
+      <c r="C67">
+        <v>1731.542083613694</v>
+      </c>
+      <c r="D67">
+        <v>2429.240129471683</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -904,6 +1310,12 @@
       <c r="B68">
         <v>1934.835628865538</v>
       </c>
+      <c r="C68">
+        <v>1628.618691007788</v>
+      </c>
+      <c r="D68">
+        <v>2319.285399470349</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -912,6 +1324,12 @@
       <c r="B69">
         <v>1831.216480377853</v>
       </c>
+      <c r="C69">
+        <v>1530.452224891158</v>
+      </c>
+      <c r="D69">
+        <v>2211.789123072723</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -920,6 +1338,12 @@
       <c r="B70">
         <v>1730.962787471794</v>
       </c>
+      <c r="C70">
+        <v>1436.337484100249</v>
+      </c>
+      <c r="D70">
+        <v>2106.887323205922</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -928,6 +1352,12 @@
       <c r="B71">
         <v>1634.136030818801</v>
       </c>
+      <c r="C71">
+        <v>1345.401498578323</v>
+      </c>
+      <c r="D71">
+        <v>2005.711331884272</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -936,6 +1366,12 @@
       <c r="B72">
         <v>1540.781698570106</v>
       </c>
+      <c r="C72">
+        <v>1257.866827159485</v>
+      </c>
+      <c r="D72">
+        <v>1907.470936262407</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -944,6 +1380,12 @@
       <c r="B73">
         <v>1450.929957858329</v>
       </c>
+      <c r="C73">
+        <v>1173.943653529322</v>
+      </c>
+      <c r="D73">
+        <v>1809.771369925798</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -951,6 +1393,12 @@
       </c>
       <c r="B74">
         <v>1364.596382078415</v>
+      </c>
+      <c r="C74">
+        <v>1094.450888304071</v>
+      </c>
+      <c r="D74">
+        <v>1715.798323936552</v>
       </c>
     </row>
   </sheetData>
